--- a/data/trans_camb/P13_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.443991751241315</v>
+        <v>-2.11054327035623</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.093629957819657</v>
+        <v>-3.482138459753484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.863927958679797</v>
+        <v>1.666367376455585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.006536529225238</v>
+        <v>4.293977976374776</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.968500370311239</v>
+        <v>-1.906118731662941</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.10519334933457</v>
+        <v>3.964579802048994</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.899394818020394</v>
+        <v>1.802285389437142</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.066961130109562</v>
+        <v>-1.881428631578523</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.651694210392922</v>
+        <v>3.6629971849184</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.055173711137936</v>
+        <v>3.172643920922703</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.771943093409213</v>
+        <v>1.784938883394495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.579528946573177</v>
+        <v>8.769263008067577</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.691293773556579</v>
+        <v>10.12214810049998</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.06618331018825</v>
+        <v>2.866066655838739</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.893677192680119</v>
+        <v>10.03937133182973</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.633940293940441</v>
+        <v>5.588096650890952</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.401260339967402</v>
+        <v>1.460775666177089</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.185916912004677</v>
+        <v>8.123440117538525</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3088651885428991</v>
+        <v>-0.2673481549924633</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3888463563899958</v>
+        <v>-0.4217927199805133</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2146131586022749</v>
+        <v>0.1998821219214784</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4463130793734574</v>
+        <v>0.4667305375101682</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2238349091574225</v>
+        <v>-0.2135804405044798</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4393880877256167</v>
+        <v>0.448802916634589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2070390934258925</v>
+        <v>0.2331995825897001</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2489643242276312</v>
+        <v>-0.2272108090065032</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.454284391730392</v>
+        <v>0.4440097503418103</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.612185442596231</v>
+        <v>0.632844358130815</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4010532435305164</v>
+        <v>0.3857839184177619</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.712880680158153</v>
+        <v>1.790409676371559</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.572743378519764</v>
+        <v>1.649213514825045</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5037517256584749</v>
+        <v>0.4851690984079025</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.502303846442696</v>
+        <v>1.650574021359853</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9049790453532128</v>
+        <v>0.931267420788343</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.223270103515959</v>
+        <v>0.2448393617106814</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.33082088849042</v>
+        <v>1.325557100400242</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.3948782681437706</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.561264867492142</v>
+        <v>2.561264867492143</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.294119906142683</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1877585556521654</v>
+        <v>0.1804931918537568</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.715290868930539</v>
+        <v>-1.669477484193576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9391987598984864</v>
+        <v>1.088031691635895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.136327077823447</v>
+        <v>3.10209497204363</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5021931999074354</v>
+        <v>-0.5527733449861016</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.530291529205213</v>
+        <v>2.468334326129123</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.366653833487457</v>
+        <v>2.380688034189966</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5871658993677236</v>
+        <v>-0.4847231727394261</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.366361811265667</v>
+        <v>2.347412666429695</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.528675473326195</v>
+        <v>3.510335269533696</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9857731919129826</v>
+        <v>0.9443767856952633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.177546645488496</v>
+        <v>4.47180212245097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.385825788395661</v>
+        <v>7.34134647785285</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.287519753093451</v>
+        <v>3.235809127128317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.0050921217161</v>
+        <v>5.944323588359955</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.224996681026228</v>
+        <v>5.11340376872422</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.765716054336869</v>
+        <v>1.785807509538155</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.781488566475602</v>
+        <v>4.784332719344671</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04669879220462454</v>
+        <v>-0.003117752790500781</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5515831216879945</v>
+        <v>-0.5465195919716432</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2765640708030139</v>
+        <v>0.2991700662238251</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.7182073411917737</v>
+        <v>0.6984733808599689</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1228215145289801</v>
+        <v>-0.13761967152988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5228358948299751</v>
+        <v>0.557109726220987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6410858845316467</v>
+        <v>0.6748726371053189</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1768681956779112</v>
+        <v>-0.1488841808684277</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6329127911047719</v>
+        <v>0.6572759672504237</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.04450065186469</v>
+        <v>1.863981158707402</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6472286180953115</v>
+        <v>0.6181986795726045</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.380971081414219</v>
+        <v>2.476644213025585</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.645485329601421</v>
+        <v>2.618043967587587</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.169079889393638</v>
+        <v>1.111554556894943</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.227731653565986</v>
+        <v>2.214475170996232</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.062842883727266</v>
+        <v>2.058006829412368</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7220905513874196</v>
+        <v>0.708023343423462</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.037336985589139</v>
+        <v>2.018031873204206</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.3111036105141067</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9563981893472361</v>
+        <v>0.9563981893472364</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.167290172497622</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1843737362466319</v>
+        <v>0.115162618878774</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.0304016519139</v>
+        <v>-1.078087889584596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4254424608149954</v>
+        <v>-0.374947329995572</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6534523612329199</v>
+        <v>-0.7223995340507532</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.752442282838018</v>
+        <v>-1.78377995711828</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3782297854670172</v>
+        <v>-0.5905832724912383</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2010383389734606</v>
+        <v>0.3559843950304266</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9911941997675563</v>
+        <v>-0.9601425768431341</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02979412150286977</v>
+        <v>0.1847134394660302</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.31614028270226</v>
+        <v>3.289959922781641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.693954772117849</v>
+        <v>1.829775915819116</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.404541741705934</v>
+        <v>2.337715887719178</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.004064342383481</v>
+        <v>3.120729055799711</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.045121045784276</v>
+        <v>2.11004627811448</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.727409539829235</v>
+        <v>2.650937273461011</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.630637283851183</v>
+        <v>2.763601906317696</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.278223761352981</v>
+        <v>1.397649671784585</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.129540875391789</v>
+        <v>2.156921994689989</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1585208741106973</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4873266392591015</v>
+        <v>0.4873266392591017</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3254343228246256</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04257418787857821</v>
+        <v>0.02902029167687061</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4236315339181068</v>
+        <v>-0.4365959298798609</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1977823822505466</v>
+        <v>-0.1711083095569499</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1650178100648529</v>
+        <v>-0.1659490179336783</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.412062322254767</v>
+        <v>-0.4262464806787953</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.09925310492259047</v>
+        <v>-0.1318155761653359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05259702999134334</v>
+        <v>0.09697894701575399</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3191099637670102</v>
+        <v>-0.3100137731795901</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.02635416207445852</v>
+        <v>0.05467180040126778</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.165003881076474</v>
+        <v>2.338679476389953</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.205201092726737</v>
+        <v>1.298590018499344</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.592302684230316</v>
+        <v>1.609886825735208</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.023829202952696</v>
+        <v>1.087141691257532</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7457990371364202</v>
+        <v>0.7652230407616003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9579390945592537</v>
+        <v>0.9286656531734775</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.132099904530058</v>
+        <v>1.232748735747911</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5408302634627409</v>
+        <v>0.6166120700159897</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9332420883681012</v>
+        <v>1.01021742294141</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.2412822998495219</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.812356127279002</v>
+        <v>1.812356127279001</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.501089194053496</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.739265927738191</v>
+        <v>-1.81352820946266</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.524168786047553</v>
+        <v>-2.446289150343958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6333083797279857</v>
+        <v>-0.5249741357922761</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9675292284095461</v>
+        <v>-0.8228754386484494</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.115460617999487</v>
+        <v>-3.142688174651938</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.636855314485179</v>
+        <v>-1.432289079507933</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3877732060883864</v>
+        <v>-0.3951957234524527</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.020590686325181</v>
+        <v>-1.901497016816147</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.09625677251173741</v>
+        <v>-0.07591220491650186</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.691844043556519</v>
+        <v>2.750983652591545</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.895224232021854</v>
+        <v>2.032130672463343</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.936154997393511</v>
+        <v>4.133478807271378</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.422878588002617</v>
+        <v>5.617688793510914</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.503985395502262</v>
+        <v>2.375879432662981</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.569200153618531</v>
+        <v>3.499781237007052</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.526915116758543</v>
+        <v>3.273094033433999</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.630237783620067</v>
+        <v>1.594154785149018</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.187603164997822</v>
+        <v>3.163471254760281</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.08361568804413691</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6280668107770498</v>
+        <v>0.6280668107770496</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6648733256612873</v>
@@ -1411,7 +1411,7 @@
         <v>-0.04916719865897073</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5223706560261923</v>
+        <v>0.522370656026192</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4340586924034452</v>
+        <v>-0.4551366113244054</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.608935875894637</v>
+        <v>-0.6069121928674387</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1816411595452386</v>
+        <v>-0.1451950474383165</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2406668073928921</v>
+        <v>-0.1964564248925725</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.600085934719223</v>
+        <v>-0.596313417512485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2574395678837955</v>
+        <v>-0.2430335609290727</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1133168137409213</v>
+        <v>-0.1070584798795646</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4789195670097783</v>
+        <v>-0.4454266919041398</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.03660177748399789</v>
+        <v>-0.02977599799498929</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.533105373938177</v>
+        <v>1.563930107492176</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.071016272815487</v>
+        <v>1.183597272656451</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.25929478917263</v>
+        <v>2.382834446953162</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.078560114881756</v>
+        <v>2.521194025008082</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.145741950310516</v>
+        <v>1.112890781286212</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.782277706461538</v>
+        <v>1.580241220933639</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.49364789892439</v>
+        <v>1.356952602979077</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7736316142874026</v>
+        <v>0.7435321905271971</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.362636857666798</v>
+        <v>1.402118007072586</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.8220991496044772</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.753087669539229</v>
+        <v>2.75308766953923</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.163139245392223</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6107017413925203</v>
+        <v>0.7051975638350904</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5237620478905991</v>
+        <v>-0.4640939074448464</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.152833987869249</v>
+        <v>1.260222439161558</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.285791592599266</v>
+        <v>3.350602461197085</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.1833424436391516</v>
+        <v>-0.3168888780940118</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.691197087800644</v>
+        <v>1.749252416797261</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.366751703975674</v>
+        <v>2.309696509542058</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.1317808238858543</v>
+        <v>-0.04236752063561737</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.738777141969692</v>
+        <v>1.864918976398004</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.627369673745636</v>
+        <v>2.66663196881753</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.266834696809997</v>
+        <v>1.285898307475471</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.152979873691186</v>
+        <v>3.207210915303281</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.772977659082315</v>
+        <v>5.885519663361564</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.980780534579381</v>
+        <v>1.884304463333625</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.840417375351011</v>
+        <v>3.736909585635914</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.942242814671794</v>
+        <v>3.929961236960114</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.369681350668973</v>
+        <v>1.280303312582884</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.202020493747104</v>
+        <v>3.200306963584727</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1748359868280683</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5854996927799478</v>
+        <v>0.5854996927799481</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.8176931303934928</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1698849194849811</v>
+        <v>0.1918550503714675</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1616104893721704</v>
+        <v>-0.1320616545322024</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.330306622448174</v>
+        <v>0.3765361676103782</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.6301015949987894</v>
+        <v>0.6359072556162018</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03779519976194388</v>
+        <v>-0.05957359300813976</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3182998568730646</v>
+        <v>0.3338041681754435</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5493450913821958</v>
+        <v>0.5283268695749752</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0304550860662132</v>
+        <v>-0.009580283138124807</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.408711195357875</v>
+        <v>0.4380270274278956</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.024729817915631</v>
+        <v>1.019676837916786</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4860250003914165</v>
+        <v>0.5073771136587717</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.288730837985374</v>
+        <v>1.238149930364598</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.402798420543365</v>
+        <v>1.388959292894566</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4701613691978746</v>
+        <v>0.4524238025768269</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9422048135954113</v>
+        <v>0.910769109314943</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.126201222087722</v>
+        <v>1.109344021284824</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3875656376802853</v>
+        <v>0.3647339828462596</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9306763132443833</v>
+        <v>0.9051553419180707</v>
       </c>
     </row>
     <row r="34">
